--- a/assets/file_rab/eccbc87e4b5ce2fe28308fd9f2a7baf3.xlsx
+++ b/assets/file_rab/eccbc87e4b5ce2fe28308fd9f2a7baf3.xlsx
@@ -53,22 +53,22 @@
     <t>TOTAL HARGA</t>
   </si>
   <si>
-    <t>ATK</t>
-  </si>
-  <si>
-    <t>ATK lengkap</t>
-  </si>
-  <si>
-    <t>Daniel Tri Widyatmoko</t>
-  </si>
-  <si>
-    <t>Manajer</t>
-  </si>
-  <si>
-    <t>pilot</t>
-  </si>
-  <si>
-    <t>2018-05-03</t>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AC ruangan</t>
+  </si>
+  <si>
+    <t>Anang Susilo</t>
+  </si>
+  <si>
+    <t>Kepala</t>
+  </si>
+  <si>
+    <t>daikin</t>
+  </si>
+  <si>
+    <t>2018-06-07</t>
   </si>
   <si>
     <t>www.google.com</t>
@@ -545,16 +545,16 @@
         <v>17</v>
       </c>
       <c r="H4" s="3">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="I4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="3">
-        <v>9000000</v>
+        <v>2000000</v>
       </c>
     </row>
   </sheetData>
